--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Documents/06code/rest_xops-master/utest/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E9B6A-065F-4E4C-A841-30BB28D24C25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1600" windowWidth="20240" windowHeight="12720" activeTab="1" xr2:uid="{7CD8C965-9F4E-9845-AB4A-4BE0FE034B6E}"/>
+    <workbookView xWindow="1425" yWindow="2175" windowWidth="20235" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="5" r:id="rId2"/>
+    <sheet name="users" sheetId="6" r:id="rId2"/>
+    <sheet name="menus" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>DataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +55,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onemenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的菜单名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test${uuid.int(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,11 +127,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>position</t>
+    <t>superior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>superior</t>
+    <t>position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,15 +147,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test${random.int(4)}</t>
+    <t>oneuser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>true</t>
+    <t>正确的用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oneuser</t>
+    <t>test${random.int(4)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,6 +171,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$list{2.int}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -222,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +319,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -294,7 +369,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="page1image43146368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6D197E-803D-814A-B252-5FB895923B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A6D197E-803D-814A-B252-5FB895923B1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -306,7 +381,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -326,7 +401,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -355,7 +430,7 @@
         <xdr:cNvPr id="3" name="图片 2" descr="page1image43144256">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC1ED2C-AD07-2843-B4DB-69E7543960CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCC1ED2C-AD07-2843-B4DB-69E7543960CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -367,7 +442,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -387,7 +462,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -416,7 +491,7 @@
         <xdr:cNvPr id="4" name="图片 3" descr="page2image43094144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7814782-5989-FC4F-A28C-CEE0745E6410}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7814782-5989-FC4F-A28C-CEE0745E6410}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -428,7 +503,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -448,7 +523,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -477,7 +552,7 @@
         <xdr:cNvPr id="5" name="图片 4" descr="page5image43113024">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AD0630-ECAD-9642-8583-300A94EF7424}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40AD0630-ECAD-9642-8583-300A94EF7424}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -489,7 +564,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -509,7 +584,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -538,7 +613,7 @@
         <xdr:cNvPr id="6" name="图片 5" descr="page5image43114752">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E2F5F1-1611-CF49-A973-33077096B553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0E2F5F1-1611-CF49-A973-33077096B553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +625,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -570,7 +645,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -599,7 +674,7 @@
         <xdr:cNvPr id="7" name="图片 6" descr="page5image43114560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEECEAD4-09CA-9246-AF7D-EEF9FF996AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEECEAD4-09CA-9246-AF7D-EEF9FF996AF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -611,7 +686,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -631,7 +706,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -660,7 +735,7 @@
         <xdr:cNvPr id="8" name="图片 7" descr="page5image43120896">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EF58D4-79A3-0247-9441-7C5ED285375E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EF58D4-79A3-0247-9441-7C5ED285375E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -672,7 +747,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -692,7 +767,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -721,7 +796,7 @@
         <xdr:cNvPr id="9" name="图片 8" descr="page5image43114176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43216E17-E993-E94A-9F32-9CBED21C3E38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43216E17-E993-E94A-9F32-9CBED21C3E38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +808,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -753,7 +828,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -782,7 +857,7 @@
         <xdr:cNvPr id="10" name="图片 9" descr="page5image43116096">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B30968-4B53-8944-9625-78057E1F4069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69B30968-4B53-8944-9625-78057E1F4069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -794,7 +869,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -814,7 +889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -843,7 +918,7 @@
         <xdr:cNvPr id="11" name="图片 10" descr="page5image43122240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAEFF27-7218-864F-AB28-8C6CF7F9A6FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FAEFF27-7218-864F-AB28-8C6CF7F9A6FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -855,7 +930,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -875,7 +950,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -904,7 +979,7 @@
         <xdr:cNvPr id="12" name="图片 11" descr="page5image43109376">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4547E72A-2A3E-CF44-983E-DD689BADBDF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4547E72A-2A3E-CF44-983E-DD689BADBDF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,7 +991,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -936,7 +1011,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -965,7 +1040,7 @@
         <xdr:cNvPr id="13" name="图片 12" descr="page5image44029760">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23C1D19-6C4A-9947-9C92-E9A37B15DA45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C23C1D19-6C4A-9947-9C92-E9A37B15DA45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,7 +1052,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -997,7 +1072,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1026,7 +1101,7 @@
         <xdr:cNvPr id="14" name="图片 13" descr="page5image44034560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B679F3F8-5628-0148-A1D9-F092E5F445E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B679F3F8-5628-0148-A1D9-F092E5F445E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1113,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1058,7 +1133,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1087,7 +1162,7 @@
         <xdr:cNvPr id="15" name="图片 14" descr="page5image44035328">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFF6331-F4EC-6C4B-8CD2-2EE96F761E1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CFF6331-F4EC-6C4B-8CD2-2EE96F761E1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,7 +1174,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1119,7 +1194,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1148,7 +1223,7 @@
         <xdr:cNvPr id="16" name="图片 15" descr="page5image44033600">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0E8E60-495B-8340-866E-2C9B58BA1A89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C0E8E60-495B-8340-866E-2C9B58BA1A89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1235,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1180,7 +1255,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1209,7 +1284,7 @@
         <xdr:cNvPr id="17" name="图片 16" descr="page5image44037824">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34568D10-0754-7547-9E3C-B7BE535C2CC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34568D10-0754-7547-9E3C-B7BE535C2CC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1296,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1241,7 +1316,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1270,7 +1345,7 @@
         <xdr:cNvPr id="18" name="图片 17" descr="page5image44039936">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5717596-56A7-5242-BADA-27969FC2A63B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5717596-56A7-5242-BADA-27969FC2A63B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1357,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1302,7 +1377,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1331,7 +1406,7 @@
         <xdr:cNvPr id="19" name="图片 18" descr="page5image44033408">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08779537-AAD3-6747-9ADE-3458EF12C84C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08779537-AAD3-6747-9ADE-3458EF12C84C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1418,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1363,7 +1438,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1392,7 +1467,7 @@
         <xdr:cNvPr id="20" name="图片 19" descr="page5image44034176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEF5971-9511-D94A-BC51-1CF367851C36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EEF5971-9511-D94A-BC51-1CF367851C36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1479,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1424,7 +1499,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1453,7 +1528,7 @@
         <xdr:cNvPr id="21" name="图片 20" descr="page5image44035136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BD6398-BBE0-784A-AE60-67BCA4960CB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59BD6398-BBE0-784A-AE60-67BCA4960CB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1540,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1485,7 +1560,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1514,7 +1589,7 @@
         <xdr:cNvPr id="22" name="图片 21" descr="page5image44036480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03E81B7-F6FD-5946-80B5-24BAD290BF11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C03E81B7-F6FD-5946-80B5-24BAD290BF11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1601,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1546,7 +1621,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1575,7 +1650,7 @@
         <xdr:cNvPr id="23" name="图片 22" descr="page5image44036288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30297296-1935-F045-940C-BD9D04D15413}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30297296-1935-F045-940C-BD9D04D15413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1662,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1607,7 +1682,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1636,7 +1711,7 @@
         <xdr:cNvPr id="130" name="图片 129" descr="page9image43694144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299D2757-A96E-EC40-89BE-10D0B604E273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{299D2757-A96E-EC40-89BE-10D0B604E273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1723,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1668,7 +1743,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1697,7 +1772,7 @@
         <xdr:cNvPr id="131" name="图片 130" descr="page9image43693952">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3FD424-F7BE-0541-BC04-6A0E123F5267}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A3FD424-F7BE-0541-BC04-6A0E123F5267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1784,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1729,7 +1804,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1758,7 +1833,7 @@
         <xdr:cNvPr id="132" name="图片 131" descr="page9image43682624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65C53EE-0FE5-FF4F-A1ED-267EA5A960CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A65C53EE-0FE5-FF4F-A1ED-267EA5A960CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1845,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1790,7 +1865,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1819,7 +1894,7 @@
         <xdr:cNvPr id="133" name="图片 132" descr="page9image43691648">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D64F3B5-AC73-5E43-8EF9-E4172B24FEA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D64F3B5-AC73-5E43-8EF9-E4172B24FEA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1906,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1851,7 +1926,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1880,7 +1955,7 @@
         <xdr:cNvPr id="134" name="图片 133" descr="page9image43689536">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D615E4-A7F9-F24A-B742-C76D2D71EB8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10D615E4-A7F9-F24A-B742-C76D2D71EB8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1967,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1912,7 +1987,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1941,7 +2016,7 @@
         <xdr:cNvPr id="135" name="图片 134" descr="page9image43684928">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2120FF21-CAE0-374B-85BE-24F58DE3BE18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2120FF21-CAE0-374B-85BE-24F58DE3BE18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +2028,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1973,7 +2048,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2002,7 +2077,7 @@
         <xdr:cNvPr id="136" name="图片 135" descr="page9image43685888">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF57ED57-015B-5A49-B845-1C0E0210E5C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF57ED57-015B-5A49-B845-1C0E0210E5C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2089,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2034,7 +2109,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2063,7 +2138,7 @@
         <xdr:cNvPr id="137" name="图片 136" descr="page9image43683008">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC82603-5FA7-BB43-9561-CF75DEA12C07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CC82603-5FA7-BB43-9561-CF75DEA12C07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2150,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2095,7 +2170,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2124,7 +2199,7 @@
         <xdr:cNvPr id="138" name="图片 137" descr="page9image43679936">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099BA6A1-8A86-EE4A-B96D-FA437F6C3B24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{099BA6A1-8A86-EE4A-B96D-FA437F6C3B24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2211,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2156,7 +2231,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2185,7 +2260,7 @@
         <xdr:cNvPr id="139" name="图片 138" descr="page9image43695872">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B02B8C6-C29D-754F-A3CE-2B1AB6C85ACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B02B8C6-C29D-754F-A3CE-2B1AB6C85ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2272,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2217,7 +2292,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2246,7 +2321,7 @@
         <xdr:cNvPr id="140" name="图片 139" descr="page9image43681472">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06E8825-3CEA-4F48-8906-B18F6AF0A132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C06E8825-3CEA-4F48-8906-B18F6AF0A132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2333,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2278,7 +2353,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2307,7 +2382,7 @@
         <xdr:cNvPr id="141" name="图片 140" descr="page9image43681664">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7CF534-1755-2245-A7FB-1E196BEEEEB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC7CF534-1755-2245-A7FB-1E196BEEEEB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2394,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2339,7 +2414,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2368,7 +2443,7 @@
         <xdr:cNvPr id="142" name="图片 141" descr="page9image43692800">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5F805B-2917-6F46-861C-DFDE035B0D66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D5F805B-2917-6F46-861C-DFDE035B0D66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2455,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2400,7 +2475,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2429,7 +2504,7 @@
         <xdr:cNvPr id="143" name="图片 142" descr="page9image43680128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4811EB-CD07-0344-A803-5096C8B5466D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E4811EB-CD07-0344-A803-5096C8B5466D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2516,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2461,7 +2536,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2490,7 +2565,7 @@
         <xdr:cNvPr id="144" name="图片 143" descr="page9image43681280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2567682A-6C79-834A-80A9-6B0E015DA619}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2567682A-6C79-834A-80A9-6B0E015DA619}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2577,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2522,7 +2597,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2551,7 +2626,7 @@
         <xdr:cNvPr id="145" name="图片 144" descr="page9image43682240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C815AA42-F48E-3C4B-884E-CC382185F4E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C815AA42-F48E-3C4B-884E-CC382185F4E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2638,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2583,7 +2658,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2612,7 +2687,7 @@
         <xdr:cNvPr id="146" name="图片 145" descr="page9image43686464">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE09B7DE-4879-ED43-AA5B-16C3454CE172}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE09B7DE-4879-ED43-AA5B-16C3454CE172}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2699,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2644,7 +2719,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2673,7 +2748,7 @@
         <xdr:cNvPr id="147" name="图片 146" descr="page9image43681856">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F29C3EC-E096-0043-AAB2-7A4CE4F46E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F29C3EC-E096-0043-AAB2-7A4CE4F46E3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2760,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2705,7 +2780,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2734,7 +2809,7 @@
         <xdr:cNvPr id="148" name="图片 147" descr="page9image43694912">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C51A441-F341-9B46-B75A-9D272DD5BD1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C51A441-F341-9B46-B75A-9D272DD5BD1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2821,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2766,7 +2841,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2795,7 +2870,7 @@
         <xdr:cNvPr id="149" name="图片 148" descr="page9image43682432">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5682CE9D-F4AF-164B-AF9E-A5024505FAB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5682CE9D-F4AF-164B-AF9E-A5024505FAB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2882,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2827,7 +2902,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2856,7 +2931,7 @@
         <xdr:cNvPr id="150" name="图片 149" descr="page9image43683200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCB1DDA-16B6-AC4C-9F53-3D55C1829ACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CCB1DDA-16B6-AC4C-9F53-3D55C1829ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2943,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2888,7 +2963,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2917,7 +2992,7 @@
         <xdr:cNvPr id="151" name="图片 150" descr="page9image43689152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508DEDF-9777-CE46-8FAF-724B40085871}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6508DEDF-9777-CE46-8FAF-724B40085871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +3004,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2949,7 +3024,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2978,7 +3053,7 @@
         <xdr:cNvPr id="152" name="图片 151" descr="page9image43679744">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03ABE9D3-D0B8-274A-B70D-E05D80BF494B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03ABE9D3-D0B8-274A-B70D-E05D80BF494B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,7 +3065,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3010,7 +3085,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3039,7 +3114,7 @@
         <xdr:cNvPr id="153" name="图片 152" descr="page9image43681088">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FBD02D-B0AA-E040-A395-5C7D17831C51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86FBD02D-B0AA-E040-A395-5C7D17831C51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3126,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3071,7 +3146,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3100,7 +3175,7 @@
         <xdr:cNvPr id="154" name="图片 153" descr="page9image43691072">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF9FB5B-8DB1-A24B-B24C-D9E4657C1840}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DF9FB5B-8DB1-A24B-B24C-D9E4657C1840}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3112,7 +3187,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3132,7 +3207,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3161,7 +3236,7 @@
         <xdr:cNvPr id="155" name="图片 154" descr="page9image43685504">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F86F57-8444-7F47-BA98-F4217670E1C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5F86F57-8444-7F47-BA98-F4217670E1C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3248,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3193,7 +3268,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3222,7 +3297,7 @@
         <xdr:cNvPr id="156" name="图片 155" descr="page9image43680896">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B48CA5C-EF4A-584B-B7CA-D14BB355A12F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B48CA5C-EF4A-584B-B7CA-D14BB355A12F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3234,7 +3309,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3254,7 +3329,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3283,7 +3358,7 @@
         <xdr:cNvPr id="157" name="图片 156" descr="page9image43682048">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644C1758-2F0D-694D-A137-BEE9D7D9C912}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644C1758-2F0D-694D-A137-BEE9D7D9C912}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,7 +3370,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3315,7 +3390,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3372,7 +3447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3424,7 +3499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3618,29 +3693,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A7E581-A715-3F4A-B9DA-89175F56E0BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
+    <col min="5" max="5" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3654,7 +3729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="23" customHeight="1">
+    <row r="2" spans="1:5" ht="23.1" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3668,27 +3743,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="17">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3698,7 +3773,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{FFF3C873-1FB3-144F-A6E2-C131214758A6}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -3706,73 +3781,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CFDCFD-5D60-6943-8675-8DF8EEA98807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="28.5">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="79" customHeight="1">
+    <row r="2" spans="1:11" ht="78.95" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -3782,20 +3858,107 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{15B55934-23BB-9F41-81F8-09653DB318F7}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="78.95" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13">
+        <v>999</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Documents/06code/rock_test/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5588C4A6-9D83-1841-B7B3-9F4BF776FA9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2175" windowWidth="20235" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -12,8 +18,8 @@
     <sheet name="menus" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,10 +50,6 @@
   </si>
   <si>
     <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kc@123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,10 +98,6 @@
   </si>
   <si>
     <t>正确的菜单名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test${uuid.int(8)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,11 +176,19 @@
     <t>$list{2.int}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>test${random.int(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgaveTest@5567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -369,7 +375,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="page1image43146368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A6D197E-803D-814A-B252-5FB895923B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6D197E-803D-814A-B252-5FB895923B1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -381,7 +387,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -401,7 +407,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -430,7 +436,7 @@
         <xdr:cNvPr id="3" name="图片 2" descr="page1image43144256">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCC1ED2C-AD07-2843-B4DB-69E7543960CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC1ED2C-AD07-2843-B4DB-69E7543960CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -442,7 +448,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -462,7 +468,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -491,7 +497,7 @@
         <xdr:cNvPr id="4" name="图片 3" descr="page2image43094144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7814782-5989-FC4F-A28C-CEE0745E6410}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7814782-5989-FC4F-A28C-CEE0745E6410}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -503,7 +509,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -523,7 +529,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -552,7 +558,7 @@
         <xdr:cNvPr id="5" name="图片 4" descr="page5image43113024">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40AD0630-ECAD-9642-8583-300A94EF7424}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AD0630-ECAD-9642-8583-300A94EF7424}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -564,7 +570,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -584,7 +590,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -613,7 +619,7 @@
         <xdr:cNvPr id="6" name="图片 5" descr="page5image43114752">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0E2F5F1-1611-CF49-A973-33077096B553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E2F5F1-1611-CF49-A973-33077096B553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,7 +631,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -645,7 +651,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -674,7 +680,7 @@
         <xdr:cNvPr id="7" name="图片 6" descr="page5image43114560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEECEAD4-09CA-9246-AF7D-EEF9FF996AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEECEAD4-09CA-9246-AF7D-EEF9FF996AF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,7 +692,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -706,7 +712,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -735,7 +741,7 @@
         <xdr:cNvPr id="8" name="图片 7" descr="page5image43120896">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2EF58D4-79A3-0247-9441-7C5ED285375E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EF58D4-79A3-0247-9441-7C5ED285375E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -747,7 +753,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -767,7 +773,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -796,7 +802,7 @@
         <xdr:cNvPr id="9" name="图片 8" descr="page5image43114176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43216E17-E993-E94A-9F32-9CBED21C3E38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43216E17-E993-E94A-9F32-9CBED21C3E38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -808,7 +814,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -828,7 +834,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -857,7 +863,7 @@
         <xdr:cNvPr id="10" name="图片 9" descr="page5image43116096">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69B30968-4B53-8944-9625-78057E1F4069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B30968-4B53-8944-9625-78057E1F4069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +875,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -889,7 +895,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -918,7 +924,7 @@
         <xdr:cNvPr id="11" name="图片 10" descr="page5image43122240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FAEFF27-7218-864F-AB28-8C6CF7F9A6FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAEFF27-7218-864F-AB28-8C6CF7F9A6FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,7 +936,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -950,7 +956,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -979,7 +985,7 @@
         <xdr:cNvPr id="12" name="图片 11" descr="page5image43109376">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4547E72A-2A3E-CF44-983E-DD689BADBDF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4547E72A-2A3E-CF44-983E-DD689BADBDF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +997,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1011,7 +1017,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1040,7 +1046,7 @@
         <xdr:cNvPr id="13" name="图片 12" descr="page5image44029760">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C23C1D19-6C4A-9947-9C92-E9A37B15DA45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23C1D19-6C4A-9947-9C92-E9A37B15DA45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1052,7 +1058,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1072,7 +1078,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1101,7 +1107,7 @@
         <xdr:cNvPr id="14" name="图片 13" descr="page5image44034560">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B679F3F8-5628-0148-A1D9-F092E5F445E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B679F3F8-5628-0148-A1D9-F092E5F445E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1119,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1133,7 +1139,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1162,7 +1168,7 @@
         <xdr:cNvPr id="15" name="图片 14" descr="page5image44035328">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CFF6331-F4EC-6C4B-8CD2-2EE96F761E1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFF6331-F4EC-6C4B-8CD2-2EE96F761E1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1180,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1194,7 +1200,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1223,7 +1229,7 @@
         <xdr:cNvPr id="16" name="图片 15" descr="page5image44033600">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C0E8E60-495B-8340-866E-2C9B58BA1A89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0E8E60-495B-8340-866E-2C9B58BA1A89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1241,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1255,7 +1261,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1284,7 +1290,7 @@
         <xdr:cNvPr id="17" name="图片 16" descr="page5image44037824">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34568D10-0754-7547-9E3C-B7BE535C2CC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34568D10-0754-7547-9E3C-B7BE535C2CC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1302,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1316,7 +1322,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1345,7 +1351,7 @@
         <xdr:cNvPr id="18" name="图片 17" descr="page5image44039936">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5717596-56A7-5242-BADA-27969FC2A63B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5717596-56A7-5242-BADA-27969FC2A63B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1363,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1377,7 +1383,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1406,7 +1412,7 @@
         <xdr:cNvPr id="19" name="图片 18" descr="page5image44033408">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08779537-AAD3-6747-9ADE-3458EF12C84C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08779537-AAD3-6747-9ADE-3458EF12C84C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1424,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1438,7 +1444,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1467,7 +1473,7 @@
         <xdr:cNvPr id="20" name="图片 19" descr="page5image44034176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EEF5971-9511-D94A-BC51-1CF367851C36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEF5971-9511-D94A-BC51-1CF367851C36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1485,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1499,7 +1505,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1528,7 +1534,7 @@
         <xdr:cNvPr id="21" name="图片 20" descr="page5image44035136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59BD6398-BBE0-784A-AE60-67BCA4960CB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BD6398-BBE0-784A-AE60-67BCA4960CB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1546,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1560,7 +1566,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1589,7 +1595,7 @@
         <xdr:cNvPr id="22" name="图片 21" descr="page5image44036480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C03E81B7-F6FD-5946-80B5-24BAD290BF11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03E81B7-F6FD-5946-80B5-24BAD290BF11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1607,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1621,7 +1627,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1650,7 +1656,7 @@
         <xdr:cNvPr id="23" name="图片 22" descr="page5image44036288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30297296-1935-F045-940C-BD9D04D15413}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30297296-1935-F045-940C-BD9D04D15413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1668,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1682,7 +1688,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1711,7 +1717,7 @@
         <xdr:cNvPr id="130" name="图片 129" descr="page9image43694144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{299D2757-A96E-EC40-89BE-10D0B604E273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299D2757-A96E-EC40-89BE-10D0B604E273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1729,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1743,7 +1749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1772,7 +1778,7 @@
         <xdr:cNvPr id="131" name="图片 130" descr="page9image43693952">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A3FD424-F7BE-0541-BC04-6A0E123F5267}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3FD424-F7BE-0541-BC04-6A0E123F5267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1790,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1804,7 +1810,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1833,7 +1839,7 @@
         <xdr:cNvPr id="132" name="图片 131" descr="page9image43682624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A65C53EE-0FE5-FF4F-A1ED-267EA5A960CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65C53EE-0FE5-FF4F-A1ED-267EA5A960CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1851,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1865,7 +1871,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1894,7 +1900,7 @@
         <xdr:cNvPr id="133" name="图片 132" descr="page9image43691648">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D64F3B5-AC73-5E43-8EF9-E4172B24FEA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D64F3B5-AC73-5E43-8EF9-E4172B24FEA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1912,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1926,7 +1932,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1955,7 +1961,7 @@
         <xdr:cNvPr id="134" name="图片 133" descr="page9image43689536">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10D615E4-A7F9-F24A-B742-C76D2D71EB8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D615E4-A7F9-F24A-B742-C76D2D71EB8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1973,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1987,7 +1993,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2016,7 +2022,7 @@
         <xdr:cNvPr id="135" name="图片 134" descr="page9image43684928">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2120FF21-CAE0-374B-85BE-24F58DE3BE18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2120FF21-CAE0-374B-85BE-24F58DE3BE18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2034,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2048,7 +2054,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2077,7 +2083,7 @@
         <xdr:cNvPr id="136" name="图片 135" descr="page9image43685888">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF57ED57-015B-5A49-B845-1C0E0210E5C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF57ED57-015B-5A49-B845-1C0E0210E5C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2095,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2109,7 +2115,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2138,7 +2144,7 @@
         <xdr:cNvPr id="137" name="图片 136" descr="page9image43683008">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CC82603-5FA7-BB43-9561-CF75DEA12C07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC82603-5FA7-BB43-9561-CF75DEA12C07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2156,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2170,7 +2176,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2199,7 +2205,7 @@
         <xdr:cNvPr id="138" name="图片 137" descr="page9image43679936">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{099BA6A1-8A86-EE4A-B96D-FA437F6C3B24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099BA6A1-8A86-EE4A-B96D-FA437F6C3B24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2217,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2231,7 +2237,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2260,7 +2266,7 @@
         <xdr:cNvPr id="139" name="图片 138" descr="page9image43695872">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B02B8C6-C29D-754F-A3CE-2B1AB6C85ACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B02B8C6-C29D-754F-A3CE-2B1AB6C85ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2278,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2292,7 +2298,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2321,7 +2327,7 @@
         <xdr:cNvPr id="140" name="图片 139" descr="page9image43681472">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C06E8825-3CEA-4F48-8906-B18F6AF0A132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06E8825-3CEA-4F48-8906-B18F6AF0A132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2339,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2353,7 +2359,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2382,7 +2388,7 @@
         <xdr:cNvPr id="141" name="图片 140" descr="page9image43681664">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC7CF534-1755-2245-A7FB-1E196BEEEEB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7CF534-1755-2245-A7FB-1E196BEEEEB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2400,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2414,7 +2420,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2443,7 +2449,7 @@
         <xdr:cNvPr id="142" name="图片 141" descr="page9image43692800">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D5F805B-2917-6F46-861C-DFDE035B0D66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5F805B-2917-6F46-861C-DFDE035B0D66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2461,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2475,7 +2481,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2504,7 +2510,7 @@
         <xdr:cNvPr id="143" name="图片 142" descr="page9image43680128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E4811EB-CD07-0344-A803-5096C8B5466D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4811EB-CD07-0344-A803-5096C8B5466D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2522,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2536,7 +2542,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2565,7 +2571,7 @@
         <xdr:cNvPr id="144" name="图片 143" descr="page9image43681280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2567682A-6C79-834A-80A9-6B0E015DA619}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2567682A-6C79-834A-80A9-6B0E015DA619}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2583,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2597,7 +2603,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2626,7 +2632,7 @@
         <xdr:cNvPr id="145" name="图片 144" descr="page9image43682240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C815AA42-F48E-3C4B-884E-CC382185F4E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C815AA42-F48E-3C4B-884E-CC382185F4E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2644,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2658,7 +2664,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2687,7 +2693,7 @@
         <xdr:cNvPr id="146" name="图片 145" descr="page9image43686464">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE09B7DE-4879-ED43-AA5B-16C3454CE172}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE09B7DE-4879-ED43-AA5B-16C3454CE172}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2705,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2719,7 +2725,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2748,7 +2754,7 @@
         <xdr:cNvPr id="147" name="图片 146" descr="page9image43681856">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F29C3EC-E096-0043-AAB2-7A4CE4F46E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F29C3EC-E096-0043-AAB2-7A4CE4F46E3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2766,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2780,7 +2786,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2809,7 +2815,7 @@
         <xdr:cNvPr id="148" name="图片 147" descr="page9image43694912">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C51A441-F341-9B46-B75A-9D272DD5BD1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C51A441-F341-9B46-B75A-9D272DD5BD1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2827,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2841,7 +2847,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2870,7 +2876,7 @@
         <xdr:cNvPr id="149" name="图片 148" descr="page9image43682432">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5682CE9D-F4AF-164B-AF9E-A5024505FAB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5682CE9D-F4AF-164B-AF9E-A5024505FAB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +2888,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2902,7 +2908,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2931,7 +2937,7 @@
         <xdr:cNvPr id="150" name="图片 149" descr="page9image43683200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CCB1DDA-16B6-AC4C-9F53-3D55C1829ACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCB1DDA-16B6-AC4C-9F53-3D55C1829ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2949,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2963,7 +2969,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2992,7 +2998,7 @@
         <xdr:cNvPr id="151" name="图片 150" descr="page9image43689152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6508DEDF-9777-CE46-8FAF-724B40085871}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508DEDF-9777-CE46-8FAF-724B40085871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,7 +3010,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3024,7 +3030,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3053,7 +3059,7 @@
         <xdr:cNvPr id="152" name="图片 151" descr="page9image43679744">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03ABE9D3-D0B8-274A-B70D-E05D80BF494B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03ABE9D3-D0B8-274A-B70D-E05D80BF494B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3071,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3085,7 +3091,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3114,7 +3120,7 @@
         <xdr:cNvPr id="153" name="图片 152" descr="page9image43681088">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86FBD02D-B0AA-E040-A395-5C7D17831C51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FBD02D-B0AA-E040-A395-5C7D17831C51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3126,7 +3132,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3146,7 +3152,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3175,7 +3181,7 @@
         <xdr:cNvPr id="154" name="图片 153" descr="page9image43691072">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DF9FB5B-8DB1-A24B-B24C-D9E4657C1840}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF9FB5B-8DB1-A24B-B24C-D9E4657C1840}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3193,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3207,7 +3213,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3236,7 +3242,7 @@
         <xdr:cNvPr id="155" name="图片 154" descr="page9image43685504">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5F86F57-8444-7F47-BA98-F4217670E1C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F86F57-8444-7F47-BA98-F4217670E1C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3248,7 +3254,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3268,7 +3274,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3297,7 +3303,7 @@
         <xdr:cNvPr id="156" name="图片 155" descr="page9image43680896">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B48CA5C-EF4A-584B-B7CA-D14BB355A12F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B48CA5C-EF4A-584B-B7CA-D14BB355A12F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3315,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3329,7 +3335,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3358,7 +3364,7 @@
         <xdr:cNvPr id="157" name="图片 156" descr="page9image43682048">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{644C1758-2F0D-694D-A137-BEE9D7D9C912}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644C1758-2F0D-694D-A137-BEE9D7D9C912}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3370,7 +3376,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3390,7 +3396,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3693,29 +3699,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.375" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="23.1" customHeight="1">
+    <row r="2" spans="1:5" ht="23" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3740,30 +3746,30 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="17">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="17">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="17">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="17">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3773,7 +3779,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -3781,120 +3787,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5">
+    <row r="1" spans="1:11" ht="34">
       <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="79" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="78.95" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3902,61 +3909,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="78.95" customHeight="1">
+    <row r="2" spans="1:9" ht="79" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D2" s="13">
         <v>999</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="13" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
